--- a/Project2-Character-Recognition/2x2_XOR_excel_example.xlsx
+++ b/Project2-Character-Recognition/2x2_XOR_excel_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanbo\OneDrive\Desktop\Project2-Stream-Compaction-master\Project2-Character-Recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayPC\Documents\github\gpu-programming\Project2-Number-Algorithms\Project2-Character-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98C44B4-B8A5-4E7D-896A-1EB4BAB1F08B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A977544B-AE65-4D63-B966-8BC4BD3109B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27120" yWindow="5400" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Project2-Character-Recognition/2x2_XOR_excel_example.xlsx
+++ b/Project2-Character-Recognition/2x2_XOR_excel_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayPC\Documents\github\gpu-programming\Project2-Number-Algorithms\Project2-Character-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A977544B-AE65-4D63-B966-8BC4BD3109B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE4795-628F-4932-ABE3-871C0F96B790}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27120" yWindow="5400" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="10665" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1611,8 +1611,8 @@
         <v>39</v>
       </c>
       <c r="U24" s="13">
-        <f>(T9+T19+T29+T39)/2</f>
-        <v>3.6286597251560149E-3</v>
+        <f>(T9+T19+T29+T39)/4</f>
+        <v>1.8143298625780074E-3</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="E40">
         <f>-PRODUCT(U24/5, E31)</f>
-        <v>8.1477498601409745E-5</v>
+        <v>4.0738749300704873E-5</v>
       </c>
       <c r="F40">
         <f>-PRODUCT(U24/5, F31)</f>
-        <v>-8.511140133833535E-6</v>
+        <v>-4.2555700669167675E-6</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>7</v>
@@ -1997,11 +1997,11 @@
       </c>
       <c r="E41">
         <f>-PRODUCT(U24/5, E32)</f>
-        <v>-1.2056167796592715E-4</v>
+        <v>-6.0280838982963573E-5</v>
       </c>
       <c r="F41">
         <f>-PRODUCT(U24/5, F32)</f>
-        <v>1.1938743128793776E-5</v>
+        <v>5.969371564396888E-6</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D42">
         <f>-PRODUCT(U24/5, D33)</f>
-        <v>5.8866406904938809E-5</v>
+        <v>2.9433203452469404E-5</v>
       </c>
       <c r="E42">
         <f>-PRODUCT(U24/5, E33)</f>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F42">
         <f>-PRODUCT(U24/5, F33)</f>
-        <v>-8.511140133833535E-6</v>
+        <v>-4.2555700669167675E-6</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>8</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D43">
         <f>-PRODUCT(U24/5, D34)</f>
-        <v>-8.7289703806110285E-5</v>
+        <v>-4.3644851903055143E-5</v>
       </c>
       <c r="E43">
         <f>-PRODUCT(U24/5, E34)</f>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="F43">
         <f>-PRODUCT(U24/5, F34)</f>
-        <v>1.1938743128793776E-5</v>
+        <v>5.969371564396888E-6</v>
       </c>
       <c r="J43" s="1">
         <f>F6</f>
@@ -2078,19 +2078,19 @@
       </c>
       <c r="C44">
         <f>-PRODUCT(U24/5, C35)</f>
-        <v>-1.3618191315536884E-7</v>
+        <v>-6.8090956577684421E-8</v>
       </c>
       <c r="D44">
         <f>-PRODUCT(U24/5, D35)</f>
-        <v>7.3025375117051204E-6</v>
+        <v>3.6512687558525602E-6</v>
       </c>
       <c r="E44">
         <f>-PRODUCT(U24/5, E35)</f>
-        <v>1.0106897772445889E-5</v>
+        <v>5.0534488862229444E-6</v>
       </c>
       <c r="F44">
         <f>-PRODUCT(U24/5, F35)</f>
-        <v>-1.0558300319291809E-6</v>
+        <v>-5.2791501596459043E-7</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -2099,19 +2099,19 @@
       </c>
       <c r="C45">
         <f>-PRODUCT(U24/5, C36)</f>
-        <v>-1.3618191315536884E-7</v>
+        <v>-6.8090956577684421E-8</v>
       </c>
       <c r="D45">
         <f>-PRODUCT(U24/5, D36)</f>
-        <v>5.1464319064514557E-6</v>
+        <v>2.5732159532257279E-6</v>
       </c>
       <c r="E45">
         <f>-PRODUCT(U24/5, E36)</f>
-        <v>7.1857891212974743E-6</v>
+        <v>3.5928945606487371E-6</v>
       </c>
       <c r="F45">
         <f>-PRODUCT(U24/5, F36)</f>
-        <v>-9.021620701206939E-7</v>
+        <v>-4.5108103506034695E-7</v>
       </c>
     </row>
   </sheetData>
